--- a/data/long_dif/P19_2-Urba-long_dif.xlsx
+++ b/data/long_dif/P19_2-Urba-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +675,82 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>25,84%</t>
+          <t>26,44%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21,32%</t>
+          <t>21,45%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>22,13%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>19,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>28,03%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>27,26%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>21,87%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
+          <t>17,5%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>21,31%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>27,27%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>19,6%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>20,72%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>19,7%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>20,62%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,78; 30,27</t>
+          <t>22,34; 31,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,08; 29,09</t>
+          <t>16,85; 29,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,16; 23,83</t>
+          <t>15,99; 23,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,38; 32,74</t>
+          <t>16,11; 35,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,8; 21,82</t>
+          <t>15,27; 25,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,92; 25,52</t>
+          <t>24,26; 31,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,14; 30,1</t>
+          <t>14,55; 21,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,81; 23,14</t>
+          <t>18,49; 25,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,53; 23,55</t>
+          <t>14,28; 22,07</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>17,59; 25,89</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>24,29; 30,22</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>16,68; 23,57</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>18,26; 23,28</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>16,34; 26,82</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>17,66; 23,97</t>
         </is>
       </c>
     </row>
@@ -733,52 +841,82 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>54,38%</t>
+          <t>53,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>50,89%</t>
+          <t>49,9%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>60,3%</t>
+          <t>59,47%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>51,32%</t>
+          <t>49,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>53,73%</t>
+          <t>46,4%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>52,57%</t>
+          <t>51,86%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>52,79%</t>
+          <t>53,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>52,37%</t>
+          <t>53,14%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>56,24%</t>
+          <t>55,61%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>48,09%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>52,87%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>51,96%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>56,15%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>52,76%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>47,26%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>48,88; 60,06</t>
+          <t>48,51; 59,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44,63; 56,46</t>
+          <t>44,35; 55,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>54,59; 65,06</t>
+          <t>53,46; 64,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>46,87; 56,13</t>
+          <t>41,31; 56,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>49,0; 58,75</t>
+          <t>40,58; 52,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,13; 56,99</t>
+          <t>47,44; 56,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>49,37; 56,18</t>
+          <t>49,28; 58,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,24; 55,9</t>
+          <t>49,27; 57,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>52,87; 59,25</t>
+          <t>50,83; 60,29</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>43,06; 53,36</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>49,56; 56,41</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>47,92; 55,58</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>52,57; 59,33</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>47,63; 56,67</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>43,11; 50,97</t>
         </is>
       </c>
     </row>
@@ -839,52 +1007,82 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,78%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>27,79%</t>
+          <t>28,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>21,07%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>28,25%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>33,7%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>20,11%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>28,15%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>25,39%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>28,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>27,98%</t>
+          <t>24,99%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>26,9%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>30,59%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>19,86%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>28,44%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>23,13%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>27,54%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>32,12%</t>
         </is>
       </c>
     </row>
@@ -897,104 +1095,160 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,0; 23,75</t>
+          <t>16,01; 23,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,15; 33,08</t>
+          <t>23,72; 33,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,33; 26,81</t>
+          <t>17,02; 29,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,05; 24,44</t>
+          <t>22,81; 34,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,23; 32,42</t>
+          <t>27,64; 39,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,65; 30,46</t>
+          <t>16,89; 23,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,35; 22,57</t>
+          <t>24,2; 32,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,9; 31,38</t>
+          <t>21,62; 28,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,29; 27,06</t>
+          <t>22,46; 32,16</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>25,4; 35,78</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>17,23; 22,28</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>25,31; 31,93</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>20,62; 27,09</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>23,86; 30,93</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>28,52; 36,61</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>24,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>26,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>22,1%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1261,164 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,28; 31,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,96; 26,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,93; 25,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,66; 32,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,18; 26,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,43; 29,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,6; 29,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,17; 24,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,21; 25,53</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>55,61%</t>
+          <t>24,68%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>52,25%</t>
+          <t>22,08%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>57,83%</t>
+          <t>19,82%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>49,32%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>51,08%</t>
+          <t>21,96%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>52,91%</t>
+          <t>27,2%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>52,46%</t>
+          <t>20,75%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>51,67%</t>
+          <t>24,44%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>55,36%</t>
+          <t>21,42%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>23,19%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>25,94%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>21,42%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>22,13%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>19,55%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>22,54%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1431,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>49,83; 62,34</t>
+          <t>20,3; 30,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>46,01; 58,94</t>
+          <t>17,84; 27,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>52,47; 63,79</t>
+          <t>15,74; 24,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>43,77; 54,38</t>
+          <t>12,68; 25,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>44,89; 56,15</t>
+          <t>13,02; 31,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>47,99; 57,41</t>
+          <t>22,88; 32,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>48,27; 56,57</t>
+          <t>17,08; 26,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>47,51; 55,95</t>
+          <t>20,28; 28,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>51,61; 58,91</t>
+          <t>17,01; 25,81</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>14,45; 33,15</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>22,73; 29,61</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>18,1; 25,33</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>19,2; 25,49</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>16,38; 24,06</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>16,6; 30,1</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1509,82 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>54,83%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>26,25%</t>
+          <t>51,81%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22,19%</t>
+          <t>58,02%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>59,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>28,32%</t>
+          <t>55,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>22,87%</t>
+          <t>49,31%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>21,46%</t>
+          <t>51,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>27,28%</t>
+          <t>52,55%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>22,53%</t>
+          <t>54,2%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>51,22%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>52,07%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>51,59%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>55,28%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>57,02%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>53,59%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1597,160 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,2; 24,08</t>
+          <t>49,14; 60,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,19; 32,59</t>
+          <t>45,16; 58,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,03; 27,31</t>
+          <t>52,31; 63,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,28; 28,89</t>
+          <t>53,16; 66,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,46; 34,04</t>
+          <t>45,09; 69,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,27; 27,11</t>
+          <t>44,29; 54,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,39; 24,86</t>
+          <t>46,59; 56,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,65; 31,64</t>
+          <t>47,73; 57,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,81; 25,97</t>
+          <t>48,84; 60,45</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>39,7; 61,33</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>47,87; 55,75</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>47,75; 55,73</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>51,57; 58,81</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>52,41; 61,46</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>46,23; 62,64</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>37,33%</t>
+          <t>20,49%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>26,11%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>23,63%</t>
+          <t>22,16%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>21,6%</t>
+          <t>22,5%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,62%</t>
+          <t>22,35%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>23,49%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>27,89%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>23,01%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>22,11%</t>
+          <t>24,38%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>25,58%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>21,99%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>26,99%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>22,58%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>23,44%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>23,87%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1763,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>26,41; 53,15</t>
+          <t>16,26; 25,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,0; 31,3</t>
+          <t>20,6; 32,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,29; 32,98</t>
+          <t>18,04; 27,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,23; 30,72</t>
+          <t>17,27; 28,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,67; 23,13</t>
+          <t>14,27; 30,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,76; 28,49</t>
+          <t>18,74; 28,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,55; 40,32</t>
+          <t>23,11; 32,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,85; 24,96</t>
+          <t>19,4; 27,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,95; 28,4</t>
+          <t>19,8; 29,54</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>17,57; 35,7</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>19,13; 25,41</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>23,24; 30,9</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>19,72; 26,26</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>19,92; 27,49</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>17,77; 29,58</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1841,82 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>44,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>44,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>51,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>53,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>57,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>55,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>48,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>50,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>53,31%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1929,164 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>32,44; 57,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>33,32; 56,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>40,94; 62,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>42,85; 62,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>47,7; 67,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>45,98; 63,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>39,46; 56,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>42,61; 58,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>45,76; 59,41</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>38,72%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>36,29%</t>
+          <t>18,38%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>24,81%</t>
+          <t>23,36%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>27,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>24,34%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>21,54%</t>
+          <t>16,09%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>31,87%</t>
+          <t>20,19%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>24,58%</t>
+          <t>24,67%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>30,79%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>17,27%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>21,82%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>17,64%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +2099,160 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>10,66; 27,5</t>
+          <t>26,41; 55,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>25,18; 48,32</t>
+          <t>10,06; 30,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>16,97; 35,14</t>
+          <t>15,51; 33,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17,28; 36,01</t>
+          <t>5,14; 21,15</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>18,55; 36,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>17,12; 32,3</t>
+          <t>14,99; 31,23</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>15,35; 28,33</t>
+          <t>9,87; 24,96</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>24,46; 40,89</t>
+          <t>13,93; 28,68</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>19,19; 31,33</t>
+          <t>15,45; 35,41</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>23,91; 42,3</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>11,7; 24,31</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>16,84; 28,28</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>12,1; 24,89</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>26,83%</t>
+          <t>42,27%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>44,12%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>20,23%</t>
+          <t>51,54%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>27,27%</t>
+          <t>65,4%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>22,7%</t>
+          <t>55,0%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>27,05%</t>
+          <t>56,74%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>54,72%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>21,49%</t>
+          <t>57,89%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>48,5%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>50,24%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>53,08%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>61,71%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +2265,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>23,4; 30,51</t>
+          <t>30,07; 53,65</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>17,78; 24,59</t>
+          <t>31,14; 55,88</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>17,92; 23,45</t>
+          <t>41,42; 61,83</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>24,64; 30,36</t>
+          <t>48,33; 77,86</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>16,27; 21,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>20,07; 25,17</t>
+          <t>44,68; 64,36</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>24,93; 29,64</t>
+          <t>46,87; 66,94</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>17,82; 22,36</t>
+          <t>46,22; 64,34</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>19,65; 23,49</t>
+          <t>46,06; 68,63</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>39,91; 56,37</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>41,8; 58,45</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>45,39; 59,9</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>52,6; 71,16</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2343,82 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>53,71%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>50,65%</t>
+          <t>37,5%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>58,24%</t>
+          <t>25,11%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>50,77%</t>
+          <t>23,75%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>53,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>52,99%</t>
+          <t>22,48%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>52,21%</t>
+          <t>27,17%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>51,89%</t>
+          <t>25,09%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>55,56%</t>
+          <t>17,44%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>20,71%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>32,49%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>25,1%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>20,65%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2431,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>49,89; 58,12</t>
+          <t>11,65; 28,4</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>46,49; 54,93</t>
+          <t>25,84; 53,91</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>54,47; 61,79</t>
+          <t>16,96; 34,36</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>47,5; 54,07</t>
+          <t>13,4; 38,32</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>49,92; 56,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>50,16; 56,12</t>
+          <t>15,3; 31,11</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>49,63; 54,91</t>
+          <t>18,61; 36,36</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>49,16; 54,66</t>
+          <t>18,34; 34,07</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>53,12; 57,82</t>
+          <t>10,08; 26,54</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>15,09; 26,57</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>25,44; 43,42</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>19,59; 31,81</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>13,97; 29,29</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2509,82 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>28,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>21,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>21,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>28,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>20,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>28,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>22,95%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2597,765 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>17,01; 22,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>24,66; 31,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>18,65; 25,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>19,36; 24,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>25,32; 31,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>21,71; 27,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>18,81; 22,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>25,6; 30,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>21,08; 25,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>27,23%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>21,32%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>20,08%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>18,96%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>20,4%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>27,09%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>18,78%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>22,67%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>19,81%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>21,71%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>27,16%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>20,04%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>21,4%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>19,4%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>21,05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>23,9; 30,92</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>18,23; 25,5</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>17,62; 23,09</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>15,3; 26,71</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>16,03; 25,06</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>24,45; 29,99</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>16,23; 21,96</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>20,39; 25,02</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>17,14; 22,64</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>18,14; 25,56</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>24,82; 29,5</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>18,06; 22,66</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>19,71; 23,24</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>17,04; 23,08</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>18,41; 24,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>52,89%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>49,95%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>57,92%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>55,64%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>48,61%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>51,22%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>53,22%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>53,09%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>55,33%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>48,75%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>52,04%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>51,61%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>55,45%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>55,48%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>48,68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>48,99; 56,97</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>45,66; 54,16</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>54,15; 61,45</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>50,67; 60,26</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>43,57; 54,73</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>48,14; 54,25</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>49,74; 56,38</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>50,24; 56,02</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>51,52; 58,86</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>44,17; 53,66</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>49,59; 54,61</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>49,04; 54,22</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>53,09; 57,82</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>52,25; 58,38</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>44,99; 52,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>19,88%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>28,72%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>22,0%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>25,4%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>30,99%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>21,69%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>27,99%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>24,24%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>24,86%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>29,54%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>20,8%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>28,35%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>23,14%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>25,12%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>30,26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>17,41; 22,74</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>25,23; 32,84</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>19,17; 26,2</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>21,47; 29,46</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>26,02; 37,1</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>19,35; 24,7</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>24,95; 30,97</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>21,86; 26,82</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>22,04; 28,12</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>25,67; 34,04</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>19,06; 23,24</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>26,07; 30,79</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>21,15; 25,56</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>22,61; 27,85</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>27,14; 33,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P19_2-Urba-long_dif.xlsx
+++ b/data/long_dif/P19_2-Urba-long_dif.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -839,7 +839,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -998,7 +998,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1479,7 +1479,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1783,7 +1783,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1924,7 +1924,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -2228,7 +2228,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2387,7 +2387,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
